--- a/Data/Codebook_v14.xlsx
+++ b/Data/Codebook_v14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelkrantz/Desktop/Data_Science/Misc_Projects/Human_Capital_Analytics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F712BB44-355C-D049-8CCF-CE77E109DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE1A5A-66D7-5740-9859-C375881D8E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{68D2BB79-F46F-4048-8D5E-EDB5E968249F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{68D2BB79-F46F-4048-8D5E-EDB5E968249F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coodbook_Summary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>Feature</t>
   </si>
@@ -299,13 +299,16 @@
   </si>
   <si>
     <t>In this update, I fixed a few minor errors/discrepancies between this codebook and the dataset.</t>
+  </si>
+  <si>
+    <t>Feature Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +347,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,9 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5C168A-56B4-9342-9008-7C870BFE2C6F}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -794,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D2D7BC-ADC1-8547-BF1D-F734410EE1BE}">
-  <dimension ref="A2:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,78 +815,69 @@
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" ht="47" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -886,10 +885,10 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -897,32 +896,32 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -930,43 +929,43 @@
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -974,21 +973,21 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -996,21 +995,21 @@
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
@@ -1018,10 +1017,10 @@
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -1029,10 +1028,10 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -1040,54 +1039,54 @@
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -1095,10 +1094,10 @@
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -1106,21 +1105,21 @@
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -1128,65 +1127,65 @@
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
@@ -1194,12 +1193,34 @@
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
